--- a/My Professional ReadingList.xlsx
+++ b/My Professional ReadingList.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/X-hung/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X-hung\Documents\GitHub\TOEFL-References\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="440" windowWidth="19840" windowHeight="19720" tabRatio="500"/>
+    <workbookView xWindow="19020" yWindow="435" windowWidth="19845" windowHeight="19725" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="87">
   <si>
     <t>c</t>
   </si>
@@ -481,15 +481,30 @@
   <si>
     <t>国产教材传奇</t>
   </si>
+  <si>
+    <t>Head First Java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟哥的Linux私房菜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏设计的100个原理</t>
+  </si>
+  <si>
+    <t>编译原理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;《&quot;@&quot;》&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;《&quot;@&quot;》&quot;"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,7 +535,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Corbel"/>
+      <name val="华文楷体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -577,6 +592,7 @@
       <sz val="14"/>
       <color rgb="FFF2F2F2"/>
       <name val="Webdings"/>
+      <family val="1"/>
       <charset val="2"/>
     </font>
     <font>
@@ -639,6 +655,21 @@
       <sz val="13"/>
       <color rgb="FF222222"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -738,7 +769,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,22 +830,22 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -824,17 +855,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="标题 1" xfId="1" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="2" builtinId="17"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1224,23 +1264,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="72" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="29" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="30" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="30" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="30" customWidth="1"/>
     <col min="6" max="6" width="11" style="30" customWidth="1"/>
-    <col min="7" max="7" width="37.5" style="31" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" style="31" customWidth="1"/>
     <col min="8" max="8" width="4" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1292,7 @@
       <c r="G1" s="28"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:8" ht="72" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1304,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="32.1" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1328,7 @@
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="72" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1350,7 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="72" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1372,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="72" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1394,7 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="72" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1416,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="72" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1436,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="72" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1454,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="72" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="72" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="72" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="72" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="72" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="72" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="72" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="72" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="72" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="72" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="72" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="72" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="72" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="72" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="72" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="72" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="72" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="72" customHeight="1">
       <c r="A27" s="10"/>
       <c r="C27" s="29" t="s">
         <v>77</v>
@@ -1610,7 +1650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="72" customHeight="1">
       <c r="A28" s="10"/>
       <c r="C28" s="29" t="s">
         <v>79</v>
@@ -1622,7 +1662,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="72" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1670,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="72" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="72" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1686,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="72" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="72" customHeight="1">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="72" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="72" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="72" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1729,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="72" customHeight="1">
       <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1737,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="72" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1751,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="72" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1759,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="72" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="72" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>0</v>
       </c>
@@ -1738,637 +1778,649 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="72" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="72" customHeight="1">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="72" customHeight="1">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="72" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="72" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="72" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="72" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="72" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="72" customHeight="1">
       <c r="A50" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="72" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="72" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="72" customHeight="1">
       <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="72" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="72" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="72" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="72" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="72" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="72" customHeight="1">
       <c r="A59" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="72" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="72" customHeight="1">
       <c r="A61" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="72" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="72" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="72" customHeight="1">
       <c r="A64" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="72" customHeight="1">
       <c r="A65" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="72" customHeight="1">
       <c r="A66" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="72" customHeight="1">
       <c r="A67" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="72" customHeight="1">
       <c r="A68" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="72" customHeight="1">
       <c r="A69" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="72" customHeight="1">
       <c r="A70" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="72" customHeight="1">
       <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="72" customHeight="1">
       <c r="A72" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="72" customHeight="1">
       <c r="A73" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="72" customHeight="1">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="72" customHeight="1">
       <c r="A75" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="72" customHeight="1">
       <c r="A76" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="72" customHeight="1">
       <c r="A77" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="72" customHeight="1">
       <c r="A78" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="72" customHeight="1">
       <c r="A79" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="72" customHeight="1">
       <c r="A80" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="72" customHeight="1">
       <c r="A81" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="72" customHeight="1">
       <c r="A82" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="72" customHeight="1">
       <c r="A83" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="72" customHeight="1">
       <c r="A84" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="72" customHeight="1">
       <c r="A85" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="72" customHeight="1">
       <c r="A86" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="72" customHeight="1">
       <c r="A87" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="72" customHeight="1">
       <c r="A88" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="72" customHeight="1">
       <c r="A89" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="72" customHeight="1">
       <c r="A90" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="72" customHeight="1">
       <c r="A91" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="72" customHeight="1">
       <c r="A92" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="72" customHeight="1">
       <c r="A93" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="72" customHeight="1">
       <c r="A94" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="72" customHeight="1">
       <c r="A95" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="72" customHeight="1">
       <c r="A96" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="72" customHeight="1">
       <c r="A97" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="72" customHeight="1">
       <c r="A98" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="72" customHeight="1">
       <c r="A99" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="72" customHeight="1">
       <c r="A100" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="72" customHeight="1">
       <c r="A101" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="72" customHeight="1">
       <c r="A102" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="72" customHeight="1">
       <c r="A103" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="72" customHeight="1">
       <c r="A104" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="72" customHeight="1">
       <c r="A105" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="72" customHeight="1">
       <c r="A106" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="72" customHeight="1">
       <c r="A107" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="72" customHeight="1">
       <c r="A108" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="72" customHeight="1">
       <c r="A109" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="72" customHeight="1">
       <c r="A110" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="72" customHeight="1">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="72" customHeight="1">
       <c r="A112" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="72" customHeight="1">
       <c r="A113" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="72" customHeight="1">
       <c r="A114" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="72" customHeight="1">
       <c r="A115" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="72" customHeight="1">
       <c r="A116" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="72" customHeight="1">
       <c r="A117" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="72" customHeight="1">
       <c r="A118" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="72" customHeight="1">
       <c r="A119" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="72" customHeight="1">
       <c r="A120" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="72" customHeight="1">
       <c r="A121" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="72" customHeight="1">
       <c r="A122" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="72" customHeight="1">
       <c r="A123" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="72" customHeight="1">
       <c r="A124" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="72" customHeight="1">
       <c r="A125" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="72" customHeight="1">
       <c r="A126" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="72" customHeight="1">
       <c r="A127" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="72" customHeight="1">
       <c r="A128" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="72" customHeight="1">
       <c r="A129" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="72" customHeight="1">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="72" customHeight="1">
       <c r="A131" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="72" customHeight="1">
       <c r="A132" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="72" customHeight="1">
       <c r="A133" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="72" customHeight="1">
       <c r="A134" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="72" customHeight="1">
       <c r="A135" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="72" customHeight="1">
       <c r="A136" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="72" customHeight="1">
       <c r="A137" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="72" customHeight="1">
       <c r="A138" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="72" customHeight="1">
       <c r="A139" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="72" customHeight="1">
       <c r="A140" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="72" customHeight="1">
       <c r="A141" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="72" customHeight="1">
       <c r="A142" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="72" customHeight="1">
       <c r="A143" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="72" customHeight="1">
       <c r="A144" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="72" customHeight="1">
       <c r="A145" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="72" customHeight="1">
       <c r="A146" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="72" customHeight="1">
       <c r="A147" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="72" customHeight="1">
       <c r="A148" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="72" customHeight="1">
       <c r="A149" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="72" customHeight="1">
       <c r="A150" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="72" customHeight="1">
       <c r="A151" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="72" customHeight="1">
       <c r="A152" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="72" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="72" customHeight="1">
       <c r="A154" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="72" customHeight="1">
       <c r="A155" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="72" customHeight="1">
       <c r="A156" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="72" customHeight="1">
       <c r="A157" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="72" customHeight="1">
       <c r="A158" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="72" customHeight="1">
       <c r="A159" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="72" customHeight="1">
       <c r="A160" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="72" customHeight="1">
       <c r="A161" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="72" customHeight="1">
       <c r="A162" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="72" customHeight="1">
       <c r="A163" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="72" customHeight="1">
       <c r="A164" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="72" customHeight="1">
       <c r="A165" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="72" customHeight="1">
       <c r="A166" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="72" customHeight="1">
       <c r="A167" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="72" customHeight="1">
       <c r="A168" s="10" t="s">
         <v>0</v>
       </c>

--- a/My Professional ReadingList.xlsx
+++ b/My Professional ReadingList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="91">
   <si>
     <t>c</t>
   </si>
@@ -495,6 +495,18 @@
   <si>
     <t>编译原理</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上帝掷骰子吗？:量子物理史话</t>
+  </si>
+  <si>
+    <t>曹天元</t>
+  </si>
+  <si>
+    <t>时间的形状</t>
+  </si>
+  <si>
+    <t>汪洁</t>
   </si>
 </sst>
 </file>
@@ -1262,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="72" customHeight="1"/>
@@ -1706,19 +1718,21 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="72" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="A34" s="10"/>
       <c r="C34" s="29" t="s">
-        <v>62</v>
+        <v>87</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="72" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="A35" s="10"/>
       <c r="C35" s="29" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="72" customHeight="1">
@@ -1726,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="72" customHeight="1">
@@ -1734,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="72" customHeight="1">
@@ -1742,13 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="72" customHeight="1">
@@ -1756,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="72" customHeight="1">
@@ -1764,10 +1772,13 @@
         <v>0</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="72" customHeight="1">
@@ -1775,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="72" customHeight="1">
@@ -1783,23 +1794,26 @@
         <v>0</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="72" customHeight="1">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="33" t="s">
-        <v>84</v>
+      <c r="C43" s="29" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="72" customHeight="1">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>85</v>
+      <c r="C44" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="72" customHeight="1">
@@ -1807,18 +1821,24 @@
         <v>0</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="72" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="C46" s="34" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="72" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="C47" s="33" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="72" customHeight="1">
       <c r="A48" s="10" t="s">
@@ -2422,13 +2442,23 @@
     </row>
     <row r="168" spans="1:1" ht="72" customHeight="1">
       <c r="A168" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="72" customHeight="1">
+      <c r="A169" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="72" customHeight="1">
+      <c r="A170" s="10" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>